--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T17:04:16+00:00</t>
+    <t>2022-02-16T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -630,7 +630,7 @@
     <t>Ingredient.manufacturer.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$51</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +447,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier or code by which the ingredient can be referenced</t>
+    <t>An identifier or code by which the ingredient can be referenced.</t>
   </si>
   <si>
     <t>The identifier(s) of this Ingredient that are assigned by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate.</t>
@@ -462,7 +459,7 @@
     <t>Ingredient.status</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
+    <t>draft|active|retired|unknown</t>
   </si>
   <si>
     <t>The status of this ingredient. Enables tracking the life-cycle of the content.</t>
@@ -483,7 +480,7 @@
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition|AdministrableProductDefinition|ManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/AdministrableProductDefinition-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -515,38 +512,237 @@
     <t>Ingredient.Ingredient Role</t>
   </si>
   <si>
-    <t>Ingredient.function</t>
-  </si>
-  <si>
-    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
-  </si>
-  <si>
-    <t>Ingredient.group</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
-  </si>
-  <si>
-    <t>Ingredient.allergenicIndicator</t>
+    <t>Ingredient.role.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Ingredient.role.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>spor</t>
+  </si>
+  <si>
+    <t>SPOR (Europe)</t>
+  </si>
+  <si>
+    <t>EMA - SPOR Referential</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.id</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Ingredient.role.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>If the ingredient is a known or suspected allergen</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Ingredient.role.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Ingredient.function</t>
+  </si>
+  <si>
+    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
+  </si>
+  <si>
+    <t>Ingredient.group</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
+  </si>
+  <si>
+    <t>Ingredient.allergenicIndicator</t>
+  </si>
+  <si>
+    <t>If the ingredient is a known or suspected allergen.</t>
   </si>
   <si>
     <t>If the ingredient is a known or suspected allergen. Note that this is a property of the substance, so if a reference to a SubstanceDefinition is used to decribe that (rather than just a code), the allergen information should go there, not here.</t>
@@ -574,22 +770,7 @@
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Ingredient.manufacturer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Ingredient.manufacturer.modifierExtension</t>
@@ -612,7 +793,7 @@
     <t>Ingredient.manufacturer.role</t>
   </si>
   <si>
-    <t>allowed | possible | actual</t>
+    <t>allowed|possible|actual</t>
   </si>
   <si>
     <t>The way in which this manufacturer is associated with the ingredient. For example whether it is a possible one (others allowed), or an exclusive authorized one for this ingredient. Note that this is not the manufacturing process role.</t>
@@ -683,23 +864,9 @@
     <t>Ingredient.substance.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Ingredient.substance.code.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Ingredient.substance.code.concept</t>
   </si>
   <si>
@@ -710,6 +877,60 @@
   </si>
   <si>
     <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.version</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.code</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.display</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>SMS (Europe)</t>
+  </si>
+  <si>
+    <t>EMA - SMS</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/smswi</t>
+  </si>
+  <si>
+    <t>unii</t>
+  </si>
+  <si>
+    <t>UNII (US)</t>
+  </si>
+  <si>
+    <t>Unique Ingredient Identifier</t>
+  </si>
+  <si>
+    <t>http://fdasis.nlm.nih.gov</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.text</t>
   </si>
   <si>
     <t>Ingredient.substance.code.reference</t>
@@ -731,7 +952,7 @@
     <t>Ingredient.substance.strength</t>
   </si>
   <si>
-    <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity</t>
+    <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity.</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
@@ -756,15 +977,22 @@
 RatioRangeCodeableConceptQuantity</t>
   </si>
   <si>
-    <t>The quantity of substance in the unit of presentation</t>
+    <t xml:space="preserve">The quantity of substance in the unit of presentation. </t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. Unit of presentation refers to the quantity that the item occurs in e.g. a strength per tablet size, perhaps 'per 20mg' (the size of the tablet). It is not generally normalized as a unitary unit, which would be 'per mg').</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>Strength.Strength (Presentation)</t>
   </si>
   <si>
+    <t>Text of either the whole presentation strength or a part of it</t>
+  </si>
+  <si>
     <t>Ingredient.substance.strength.presentationText</t>
   </si>
   <si>
@@ -777,7 +1005,7 @@
     <t>Ingredient.substance.strength.concentration[x]</t>
   </si>
   <si>
-    <t>The strength per unitary volume (or mass)</t>
+    <t>Text of either the whole concentration strength or a part of it</t>
   </si>
   <si>
     <t>The strength per unitary volume (or mass).</t>
@@ -798,9 +1026,6 @@
     <t>Ingredient.substance.strength.basis</t>
   </si>
   <si>
-    <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt)</t>
-  </si>
-  <si>
     <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
   </si>
   <si>
@@ -837,7 +1062,7 @@
     <t>Ingredient.substance.strength.referenceStrength</t>
   </si>
   <si>
-    <t>Strength expressed in terms of a reference substance</t>
+    <t>Strength expressed in terms of a reference substance.</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance. For when the ingredient strength is additionally expressed as equivalent to the strength of some other closely related substance (e.g. salt vs. base). Reference strength represents the strength (quantitative composition) of the active moiety of the active substance. There are situations when the active substance and active moiety are different, therefore both a strength and a reference strength are needed.</t>
@@ -874,7 +1099,7 @@
 RatioRangeQuantity</t>
   </si>
   <si>
-    <t>Strength expressed in terms of a reference substance.</t>
+    <t>Strength expressed in terms of a reference substance</t>
   </si>
   <si>
     <t>Reference Strength.Reference Strength</t>
@@ -1021,21 +1246,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1202,7 +1412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1221,7 +1431,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="143.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1248,7 +1458,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="51.96875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1367,7 +1577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1473,7 +1683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -1581,7 +1791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -1687,7 +1897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>93</v>
       </c>
@@ -1795,7 +2005,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>99</v>
       </c>
@@ -1903,7 +2113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>108</v>
       </c>
@@ -2011,7 +2221,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>116</v>
       </c>
@@ -2119,7 +2329,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>124</v>
       </c>
@@ -2227,7 +2437,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>132</v>
       </c>
@@ -2337,7 +2547,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>137</v>
       </c>
@@ -2459,7 +2669,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -2551,7 +2761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>149</v>
       </c>
@@ -2657,7 +2867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>153</v>
       </c>
@@ -2763,7 +2973,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>160</v>
       </c>
@@ -2776,7 +2986,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2785,16 +2995,16 @@
         <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2821,68 +3031,68 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>71</v>
-      </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>165</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2891,18 +3101,20 @@
         <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>71</v>
@@ -2939,45 +3151,45 @@
         <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2988,10 +3200,10 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>71</v>
@@ -3000,72 +3212,72 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AE17" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -3074,20 +3286,22 @@
         <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>71</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>71</v>
       </c>
@@ -3108,16 +3322,20 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
       </c>
@@ -3165,7 +3383,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3180,18 +3398,18 @@
         <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>71</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3214,13 +3432,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3271,7 +3489,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3295,9 +3513,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3326,7 +3544,7 @@
         <v>127</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>129</v>
@@ -3367,19 +3585,19 @@
         <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3403,44 +3621,44 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3450,7 +3668,7 @@
         <v>71</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>71</v>
@@ -3489,19 +3707,19 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>71</v>
@@ -3510,12 +3728,12 @@
         <v>71</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3538,15 +3756,17 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -3571,13 +3791,13 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3595,7 +3815,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3610,18 +3830,18 @@
         <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>71</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3635,7 +3855,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
@@ -3644,16 +3864,18 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>71</v>
       </c>
@@ -3701,10 +3923,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -3716,18 +3938,18 @@
         <v>92</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3735,7 +3957,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>80</v>
@@ -3750,16 +3972,18 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -3807,10 +4031,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -3822,18 +4046,18 @@
         <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3853,19 +4077,23 @@
         <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -3913,7 +4141,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3925,7 +4153,7 @@
         <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
@@ -3934,23 +4162,23 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>141</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -3959,21 +4187,23 @@
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4021,19 +4251,19 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
@@ -4042,16 +4272,16 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>141</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4064,26 +4294,22 @@
         <v>71</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>71</v>
       </c>
@@ -4107,13 +4333,13 @@
         <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>71</v>
@@ -4131,7 +4357,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4143,21 +4369,21 @@
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4165,7 +4391,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>80</v>
@@ -4180,13 +4406,13 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4213,13 +4439,13 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
@@ -4237,10 +4463,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4252,7 +4478,7 @@
         <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4261,9 +4487,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4283,23 +4509,25 @@
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>71</v>
       </c>
@@ -4343,7 +4571,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4355,25 +4583,25 @@
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4389,20 +4617,18 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -4439,19 +4665,19 @@
         <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4463,21 +4689,21 @@
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4485,7 +4711,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>80</v>
@@ -4497,16 +4723,16 @@
         <v>71</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4557,7 +4783,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4569,7 +4795,7 @@
         <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>71</v>
@@ -4578,23 +4804,23 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4603,18 +4829,20 @@
         <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4663,19 +4891,19 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
@@ -4684,16 +4912,16 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4703,25 +4931,29 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -4769,7 +5001,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4781,21 +5013,21 @@
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4815,16 +5047,16 @@
         <v>71</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4851,13 +5083,13 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -4875,7 +5107,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4887,32 +5119,32 @@
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -4921,20 +5153,18 @@
         <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>71</v>
@@ -4983,69 +5213,65 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>71</v>
       </c>
@@ -5093,33 +5319,33 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5139,16 +5365,16 @@
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5199,7 +5425,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5211,32 +5437,32 @@
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -5245,18 +5471,20 @@
         <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -5305,65 +5533,69 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>71</v>
-      </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>71</v>
       </c>
@@ -5411,33 +5643,33 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5445,7 +5677,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>80</v>
@@ -5460,13 +5692,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5493,13 +5725,13 @@
         <v>71</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>71</v>
@@ -5517,10 +5749,10 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -5532,7 +5764,7 @@
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -5541,9 +5773,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5563,16 +5795,16 @@
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5623,7 +5855,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5635,32 +5867,32 @@
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>71</v>
-      </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5669,18 +5901,20 @@
         <v>71</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>71</v>
@@ -5717,45 +5951,45 @@
         <v>71</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5763,10 +5997,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -5781,10 +6015,10 @@
         <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5811,13 +6045,13 @@
         <v>71</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>71</v>
@@ -5835,13 +6069,13 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
@@ -5850,18 +6084,18 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5872,7 +6106,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -5881,16 +6115,16 @@
         <v>71</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5941,44 +6175,44 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>71</v>
@@ -5990,15 +6224,17 @@
         <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>71</v>
@@ -6035,31 +6271,31 @@
         <v>71</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>71</v>
@@ -6071,13 +6307,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6093,21 +6329,23 @@
         <v>71</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>71</v>
       </c>
@@ -6143,19 +6381,17 @@
         <v>71</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6167,7 +6403,7 @@
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>71</v>
@@ -6176,48 +6412,44 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>141</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>71</v>
       </c>
@@ -6265,19 +6497,19 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
@@ -6286,23 +6518,23 @@
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>71</v>
@@ -6311,18 +6543,20 @@
         <v>71</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>71</v>
@@ -6347,57 +6581,57 @@
         <v>71</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6405,7 +6639,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>80</v>
@@ -6420,16 +6654,20 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>275</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>71</v>
       </c>
@@ -6477,10 +6715,10 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -6492,18 +6730,18 @@
         <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>71</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6526,15 +6764,17 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>71</v>
@@ -6583,7 +6823,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6598,18 +6838,18 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>71</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6617,10 +6857,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>71</v>
@@ -6632,16 +6872,18 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>71</v>
       </c>
@@ -6665,13 +6907,13 @@
         <v>71</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>71</v>
@@ -6689,13 +6931,13 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
@@ -6704,34 +6946,4318 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AB76" s="2"/>
+      <c r="AC76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AB79" s="2"/>
+      <c r="AC79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL51">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -503,6 +503,15 @@
     <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="00000072072"/&gt;
+    &lt;display value="active"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -512,26 +521,179 @@
     <t>Ingredient.Ingredient Role</t>
   </si>
   <si>
-    <t>Ingredient.role.id</t>
+    <t>Ingredient.function</t>
+  </si>
+  <si>
+    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
+  </si>
+  <si>
+    <t>Ingredient.group</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
+  </si>
+  <si>
+    <t>Ingredient.allergenicIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If the ingredient is a known or suspected allergen.</t>
+  </si>
+  <si>
+    <t>If the ingredient is a known or suspected allergen. Note that this is a property of the substance, so if a reference to a SubstanceDefinition is used to decribe that (rather than just a code), the allergen information should go there, not here.</t>
+  </si>
+  <si>
+    <t>If this value is not present, there is no statement being made about whether this is an allergen or not. No inference can be made</t>
+  </si>
+  <si>
+    <t>Ingredient.Allergenic Indicator</t>
+  </si>
+  <si>
+    <t>Ingredient.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>An organization that manufactures this ingredient</t>
+  </si>
+  <si>
+    <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
+  </si>
+  <si>
+    <t>Ingredient.manufacturer.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Ingredient.manufacturer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.manufacturer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Ingredient.manufacturer.role</t>
+  </si>
+  <si>
+    <t>allowed|possible|actual</t>
+  </si>
+  <si>
+    <t>The way in which this manufacturer is associated with the ingredient. For example whether it is a possible one (others allowed), or an exclusive authorized one for this ingredient. Note that this is not the manufacturing process role.</t>
+  </si>
+  <si>
+    <t>The way in which this manufacturer is associated with the ingredient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.6.0</t>
+  </si>
+  <si>
+    <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
+  </si>
+  <si>
+    <t>Ingredient.manufacturer.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+</t>
+  </si>
+  <si>
+    <t>An organization that manufactures this ingredient.</t>
+  </si>
+  <si>
+    <t>Ingredient.substance</t>
+  </si>
+  <si>
+    <t>The substance that comprises this ingredient</t>
+  </si>
+  <si>
+    <t>The substance that comprises this ingredient.</t>
+  </si>
+  <si>
+    <t>Ingredient.Substance</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.id</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(SubstanceDefinition)
+</t>
+  </si>
+  <si>
+    <t>A code or full resource that represents the ingredient substance</t>
+  </si>
+  <si>
+    <t>A code or full resource that represents the ingredient's substance.</t>
+  </si>
+  <si>
+    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+  </si>
+  <si>
+    <t>Substance.Substance</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Ingredient.role.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Ingredient.substance.code.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -544,399 +706,31 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>spor</t>
-  </si>
-  <si>
-    <t>SPOR (Europe)</t>
-  </si>
-  <si>
-    <t>EMA - SPOR Referential</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.id</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Ingredient.role.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Ingredient.role.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Ingredient.function</t>
-  </si>
-  <si>
-    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
-  </si>
-  <si>
-    <t>Ingredient.group</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient according to where in the physical item it tends to be used, such the outer shell of a tablet, inner body or ink.</t>
-  </si>
-  <si>
-    <t>Ingredient.allergenicIndicator</t>
-  </si>
-  <si>
-    <t>If the ingredient is a known or suspected allergen.</t>
-  </si>
-  <si>
-    <t>If the ingredient is a known or suspected allergen. Note that this is a property of the substance, so if a reference to a SubstanceDefinition is used to decribe that (rather than just a code), the allergen information should go there, not here.</t>
-  </si>
-  <si>
-    <t>If this value is not present, there is no statement being made about whether this is an allergen or not. No inference can be made</t>
-  </si>
-  <si>
-    <t>Ingredient.Allergenic Indicator</t>
-  </si>
-  <si>
-    <t>Ingredient.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>An organization that manufactures this ingredient</t>
-  </si>
-  <si>
-    <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
-  </si>
-  <si>
-    <t>Ingredient.manufacturer.id</t>
-  </si>
-  <si>
-    <t>Ingredient.manufacturer.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.manufacturer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Ingredient.manufacturer.role</t>
-  </si>
-  <si>
-    <t>allowed|possible|actual</t>
-  </si>
-  <si>
-    <t>The way in which this manufacturer is associated with the ingredient. For example whether it is a possible one (others allowed), or an exclusive authorized one for this ingredient. Note that this is not the manufacturing process role.</t>
-  </si>
-  <si>
-    <t>The way in which this manufacturer is associated with the ingredient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.6.0</t>
-  </si>
-  <si>
-    <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
-  </si>
-  <si>
-    <t>Ingredient.manufacturer.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
-</t>
-  </si>
-  <si>
-    <t>An organization that manufactures this ingredient.</t>
-  </si>
-  <si>
-    <t>Ingredient.substance</t>
-  </si>
-  <si>
-    <t>The substance that comprises this ingredient</t>
-  </si>
-  <si>
-    <t>The substance that comprises this ingredient.</t>
-  </si>
-  <si>
-    <t>Ingredient.Substance</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.id</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.modifierExtension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableReference(SubstanceDefinition)
-</t>
-  </si>
-  <si>
-    <t>A code or full resource that represents the ingredient substance</t>
-  </si>
-  <si>
-    <t>A code or full resource that represents the ingredient's substance.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
-  </si>
-  <si>
-    <t>Substance.Substance</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.id</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.extension</t>
-  </si>
-  <si>
     <t>Ingredient.substance.code.concept</t>
   </si>
   <si>
     <t>Reference to a concept (by class)</t>
   </si>
   <si>
-    <t>A reference to a concept - e.g. the information is identified by it's general classto the degree of precision found in the terminology.</t>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://gsrs.ncats.nih.gov/ginas/app/beta"/&gt;
+    &lt;code value="2ZM8CX04RZ"/&gt;
+    &lt;display value="Insulin glargine"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>CodeableReference.concept</t>
   </si>
   <si>
-    <t>Ingredient.substance.code.concept.id</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.id</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.system</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.version</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.code</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.display</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.userSelected</t>
-  </si>
-  <si>
-    <t>SMS (Europe)</t>
-  </si>
-  <si>
-    <t>EMA - SMS</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/smswi</t>
-  </si>
-  <si>
-    <t>unii</t>
-  </si>
-  <si>
-    <t>UNII (US)</t>
-  </si>
-  <si>
-    <t>Unique Ingredient Identifier</t>
-  </si>
-  <si>
-    <t>http://fdasis.nlm.nih.gov</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.text</t>
-  </si>
-  <si>
     <t>Ingredient.substance.code.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/SubstanceDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -1412,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL91"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1458,7 +1252,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="51.96875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2913,7 +2707,7 @@
         <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>71</v>
@@ -2925,13 +2719,13 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2964,7 +2758,7 @@
         <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>71</v>
@@ -2975,7 +2769,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2986,7 +2780,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2995,10 +2789,10 @@
         <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>162</v>
@@ -3031,13 +2825,13 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -3055,44 +2849,44 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -3101,20 +2895,18 @@
         <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>71</v>
@@ -3151,45 +2943,45 @@
         <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3200,7 +2992,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -3212,24 +3004,22 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>71</v>
       </c>
@@ -3261,23 +3051,25 @@
         <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -3286,22 +3078,20 @@
         <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>71</v>
       </c>
@@ -3322,20 +3112,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
       </c>
@@ -3383,7 +3169,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3398,18 +3184,18 @@
         <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3432,13 +3218,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3489,7 +3275,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3515,7 +3301,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3544,7 +3330,7 @@
         <v>127</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>129</v>
@@ -3585,19 +3371,19 @@
         <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3623,42 +3409,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3668,58 +3454,58 @@
         <v>71</v>
       </c>
       <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>71</v>
@@ -3728,12 +3514,12 @@
         <v>71</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3756,17 +3542,15 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -3791,13 +3575,13 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3815,7 +3599,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3830,18 +3614,18 @@
         <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3864,18 +3648,16 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>71</v>
       </c>
@@ -3923,10 +3705,10 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -3938,18 +3720,18 @@
         <v>92</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3957,7 +3739,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>80</v>
@@ -3972,18 +3754,16 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -4031,10 +3811,10 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4046,18 +3826,18 @@
         <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4077,23 +3857,19 @@
         <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -4141,7 +3917,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4153,7 +3929,7 @@
         <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
@@ -4162,23 +3938,23 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -4187,23 +3963,21 @@
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4251,19 +4025,19 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
@@ -4272,16 +4046,16 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4294,22 +4068,26 @@
         <v>71</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>71</v>
       </c>
@@ -4333,13 +4111,13 @@
         <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>71</v>
@@ -4357,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4369,21 +4147,21 @@
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4391,7 +4169,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>80</v>
@@ -4406,13 +4184,13 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4439,13 +4217,13 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
@@ -4463,10 +4241,10 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4478,7 +4256,7 @@
         <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4489,7 +4267,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4509,25 +4287,23 @@
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>71</v>
       </c>
@@ -4571,7 +4347,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4583,25 +4359,25 @@
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4617,18 +4393,20 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -4665,19 +4443,19 @@
         <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4689,21 +4467,21 @@
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4711,7 +4489,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>80</v>
@@ -4723,16 +4501,16 @@
         <v>71</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4747,7 +4525,7 @@
         <v>71</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>71</v>
@@ -4783,7 +4561,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4795,7 +4573,7 @@
         <v>71</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>71</v>
@@ -4804,23 +4582,23 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
@@ -4829,20 +4607,18 @@
         <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4891,19 +4667,19 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
@@ -4912,16 +4688,16 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4934,26 +4710,22 @@
         <v>71</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -5001,7 +4773,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5013,21 +4785,21 @@
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5047,16 +4819,16 @@
         <v>71</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5083,13 +4855,13 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -5107,7 +4879,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5119,32 +4891,32 @@
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -5153,18 +4925,20 @@
         <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>71</v>
@@ -5213,65 +4987,69 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>71</v>
       </c>
@@ -5319,33 +5097,33 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5365,16 +5143,16 @@
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5413,19 +5191,17 @@
         <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5437,32 +5213,32 @@
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -5471,20 +5247,18 @@
         <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -5533,69 +5307,65 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>71</v>
       </c>
@@ -5643,33 +5413,33 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5677,7 +5447,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>80</v>
@@ -5692,13 +5462,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5725,34 +5495,32 @@
         <v>71</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -5764,7 +5532,7 @@
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -5775,7 +5543,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5795,16 +5563,16 @@
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5855,7 +5623,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5867,32 +5635,32 @@
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5901,20 +5669,18 @@
         <v>71</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>71</v>
@@ -5951,45 +5717,45 @@
         <v>71</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5997,7 +5763,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>80</v>
@@ -6012,13 +5778,13 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6069,7 +5835,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6084,18 +5850,18 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6106,7 +5872,7 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -6115,16 +5881,16 @@
         <v>71</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6151,13 +5917,13 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
@@ -6175,37 +5941,37 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6221,20 +5987,18 @@
         <v>71</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>71</v>
@@ -6271,19 +6035,19 @@
         <v>71</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6295,21 +6059,21 @@
         <v>71</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6320,7 +6084,7 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>71</v>
@@ -6329,23 +6093,19 @@
         <v>71</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>71</v>
       </c>
@@ -6381,29 +6141,31 @@
         <v>71</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>71</v>
@@ -6412,23 +6174,23 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -6440,15 +6202,17 @@
         <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>71</v>
@@ -6497,19 +6261,19 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
@@ -6523,11 +6287,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6540,24 +6304,26 @@
         <v>71</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>126</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>71</v>
       </c>
@@ -6593,19 +6359,19 @@
         <v>71</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6626,12 +6392,12 @@
         <v>71</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6654,20 +6420,16 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>71</v>
       </c>
@@ -6691,13 +6453,13 @@
         <v>71</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>71</v>
@@ -6715,7 +6477,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6730,18 +6492,18 @@
         <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>192</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6749,7 +6511,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>80</v>
@@ -6764,17 +6526,15 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>71</v>
@@ -6823,10 +6583,10 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -6838,18 +6598,18 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>198</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6857,7 +6617,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>80</v>
@@ -6872,18 +6632,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>71</v>
       </c>
@@ -6931,7 +6689,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6946,18 +6704,18 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>204</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6968,7 +6726,7 @@
         <v>72</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>71</v>
@@ -6980,18 +6738,16 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>71</v>
       </c>
@@ -7015,13 +6771,13 @@
         <v>71</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>71</v>
@@ -7039,13 +6795,13 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
@@ -7054,4206 +6810,12 @@
         <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AB76" s="2"/>
-      <c r="AC76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL91" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ing-1:If an ingredient is noted as an allergen (allergenicIndicator) then its substance should be a code. If the substance is a SubstanceDefinition, then the allegen information should be documented in that resource {(Ingredient.allergenicIndicator.where(value='true').count() + Ingredient.substance.code.reference.count())  &lt; 2}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>administrative.medication</t>
@@ -474,7 +474,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Ingredient.for</t>
@@ -497,7 +497,7 @@
 </t>
   </si>
   <si>
-    <t>Purpose of the ingredient within the product, e.g. active, inactive</t>
+    <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive</t>
   </si>
   <si>
     <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive.</t>
@@ -512,28 +512,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-role</t>
-  </si>
-  <si>
     <t>Ingredient.Ingredient Role</t>
   </si>
   <si>
     <t>Ingredient.function</t>
   </si>
   <si>
-    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-function</t>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: Antioxidant, Alkalizing Agent</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: Antioxidant, Alkalizing Agent.</t>
   </si>
   <si>
     <t>Ingredient.group</t>
@@ -555,12 +543,6 @@
     <t>If the ingredient is a known or suspected allergen.</t>
   </si>
   <si>
-    <t>If the ingredient is a known or suspected allergen. Note that this is a property of the substance, so if a reference to a SubstanceDefinition is used to decribe that (rather than just a code), the allergen information should go there, not here.</t>
-  </si>
-  <si>
-    <t>If this value is not present, there is no statement being made about whether this is an allergen or not. No inference can be made</t>
-  </si>
-  <si>
     <t>Ingredient.Allergenic Indicator</t>
   </si>
   <si>
@@ -574,7 +556,7 @@
     <t>An organization that manufactures this ingredient</t>
   </si>
   <si>
-    <t>The organization(s) that manufacture this ingredient. Can be used to indicate:         1) Organizations we are aware of that manufacture this ingredient         2) Specific Manufacturer(s) currently being used         3) Set of organisations allowed to manufacture this ingredient for this product         Users must be clear on the application of context relevant to their use case.</t>
+    <t>An organization that manufactures this ingredient.</t>
   </si>
   <si>
     <t>Ingredient.manufacturer.id</t>
@@ -618,6 +600,10 @@
     <t>Ingredient.manufacturer.role</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>allowed|possible|actual</t>
   </si>
   <si>
@@ -627,7 +613,7 @@
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/ingredient-manufacturer-role|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Ingredient.Manufacturer / Establishment (Organisation)</t>
@@ -640,9 +626,6 @@
 </t>
   </si>
   <si>
-    <t>An organization that manufactures this ingredient.</t>
-  </si>
-  <si>
     <t>Ingredient.substance</t>
   </si>
   <si>
@@ -674,13 +657,7 @@
     <t>A code or full resource that represents the ingredient substance</t>
   </si>
   <si>
-    <t>A code or full resource that represents the ingredient's substance.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+    <t>A code or full resource that represents the ingredient substance.</t>
   </si>
   <si>
     <t>Substance.Substance</t>
@@ -712,7 +689,7 @@
     <t>Reference to a concept (by class)</t>
   </si>
   <si>
-    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+    <t>A reference to a concept - e.g. the information is identified by it's general classto the degree of precision found in the terminology.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -749,7 +726,7 @@
     <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity.</t>
   </si>
   <si>
-    <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
+    <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item.</t>
   </si>
   <si>
     <t>Specified Substance.Strength</t>
@@ -774,9 +751,6 @@
     <t xml:space="preserve">The quantity of substance in the unit of presentation. </t>
   </si>
   <si>
-    <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. Unit of presentation refers to the quantity that the item occurs in e.g. a strength per tablet size, perhaps 'per 20mg' (the size of the tablet). It is not generally normalized as a unitary unit, which would be 'per mg').</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -790,7 +764,7 @@
     <t>Ingredient.substance.strength.presentationText</t>
   </si>
   <si>
-    <t>Text of either the whole presentation strength or a part of it (rest being in Strength.presentation as a ratio)</t>
+    <t>A textual represention of either the whole of the presentation strength or a part of it - with the rest being in Strength.presentation as a ratio</t>
   </si>
   <si>
     <t>A textual represention of either the whole of the presentation strength or a part of it - with the rest being in Strength.presentation as a ratio.</t>
@@ -811,7 +785,7 @@
     <t>Ingredient.substance.strength.concentrationText</t>
   </si>
   <si>
-    <t>Text of either the whole concentration strength or a part of it (rest being in Strength.concentration as a ratio)</t>
+    <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio</t>
   </si>
   <si>
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
@@ -826,10 +800,10 @@
     <t>Ingredient.substance.strength.measurementPoint</t>
   </si>
   <si>
-    <t>When strength is measured at a particular point or distance</t>
-  </si>
-  <si>
-    <t>For when strength is measured at a particular point or distance. There are products where strength is measured at a particular point. For example, the strength of the ingredient in some inhalers is measured at a particular position relative to the point of aerosolization.</t>
+    <t>For when strength is measured at a particular point or distance</t>
+  </si>
+  <si>
+    <t>For when strength is measured at a particular point or distance.</t>
   </si>
   <si>
     <t>Strength.Measurement Point</t>
@@ -838,18 +812,12 @@
     <t>Ingredient.substance.strength.country</t>
   </si>
   <si>
-    <t>Where the strength range applies</t>
+    <t>The country or countries for which the strength range applies</t>
   </si>
   <si>
     <t>The country or countries for which the strength range applies.</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/country</t>
-  </si>
-  <si>
     <t>Strength.Country</t>
   </si>
   <si>
@@ -859,9 +827,6 @@
     <t>Strength expressed in terms of a reference substance.</t>
   </si>
   <si>
-    <t>Strength expressed in terms of a reference substance. For when the ingredient strength is additionally expressed as equivalent to the strength of some other closely related substance (e.g. salt vs. base). Reference strength represents the strength (quantitative composition) of the active moiety of the active substance. There are situations when the active substance and active moiety are different, therefore both a strength and a reference strength are needed.</t>
-  </si>
-  <si>
     <t>Strength.Reference Strength</t>
   </si>
   <si>
@@ -883,7 +848,7 @@
     <t>Relevant reference substance.</t>
   </si>
   <si>
-    <t>Reference Strength.Reference Substance</t>
+    <t>Reference Strength.Reference Specified Substance</t>
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.strength[x]</t>
@@ -900,9 +865,6 @@
   </si>
   <si>
     <t>Ingredient.substance.strength.referenceStrength.measurementPoint</t>
-  </si>
-  <si>
-    <t>For when strength is measured at a particular point or distance.</t>
   </si>
   <si>
     <t>Reference Strength.Measurement Point</t>
@@ -1225,7 +1187,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="143.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.64453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1238,8 +1200,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="107.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.2734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="65.0234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.4609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2719,13 +2681,13 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2758,7 +2720,7 @@
         <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>71</v>
@@ -2769,7 +2731,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2795,10 +2757,10 @@
         <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2825,13 +2787,13 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2849,7 +2811,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2875,7 +2837,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2901,10 +2863,10 @@
         <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2955,7 +2917,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -2981,7 +2943,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3004,22 +2966,20 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>71</v>
       </c>
@@ -3063,7 +3023,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3078,7 +3038,7 @@
         <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>71</v>
@@ -3089,7 +3049,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3112,13 +3072,13 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3169,7 +3129,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3184,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
@@ -3195,7 +3155,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3221,10 +3181,10 @@
         <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3275,7 +3235,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3301,7 +3261,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3330,7 +3290,7 @@
         <v>127</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>129</v>
@@ -3383,7 +3343,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3409,11 +3369,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3435,10 +3395,10 @@
         <v>126</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>129</v>
@@ -3493,7 +3453,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3519,7 +3479,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3542,13 +3502,13 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3578,10 +3538,10 @@
         <v>146</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -3599,7 +3559,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3614,7 +3574,7 @@
         <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
@@ -3625,7 +3585,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3648,13 +3608,13 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3705,7 +3665,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -3720,7 +3680,7 @@
         <v>92</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
@@ -3731,7 +3691,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3754,13 +3714,13 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3811,7 +3771,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -3826,7 +3786,7 @@
         <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
@@ -3837,7 +3797,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3863,10 +3823,10 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3917,7 +3877,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -3943,7 +3903,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3972,7 +3932,7 @@
         <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>129</v>
@@ -4025,7 +3985,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4051,11 +4011,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4077,10 +4037,10 @@
         <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>129</v>
@@ -4135,7 +4095,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4161,7 +4121,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4184,13 +4144,13 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4217,13 +4177,13 @@
         <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
@@ -4241,7 +4201,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -4256,7 +4216,7 @@
         <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4267,7 +4227,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4290,13 +4250,13 @@
         <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4347,7 +4307,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4373,7 +4333,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4402,7 +4362,7 @@
         <v>127</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>129</v>
@@ -4443,19 +4403,19 @@
         <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4481,7 +4441,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4507,10 +4467,10 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4525,7 +4485,7 @@
         <v>71</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>71</v>
@@ -4561,7 +4521,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4587,7 +4547,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4610,13 +4570,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4667,7 +4627,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4693,7 +4653,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4716,13 +4676,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4773,7 +4733,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4788,7 +4748,7 @@
         <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
@@ -4799,7 +4759,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4825,10 +4785,10 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4879,7 +4839,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -4905,7 +4865,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4934,7 +4894,7 @@
         <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>129</v>
@@ -4987,7 +4947,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5013,11 +4973,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5039,10 +4999,10 @@
         <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>129</v>
@@ -5097,7 +5057,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5123,7 +5083,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5146,13 +5106,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5191,17 +5151,17 @@
         <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5216,7 +5176,7 @@
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
@@ -5227,7 +5187,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5250,13 +5210,13 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5307,7 +5267,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5322,7 +5282,7 @@
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5333,7 +5293,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5356,13 +5316,13 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5413,7 +5373,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5439,7 +5399,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5462,13 +5422,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5507,17 +5467,17 @@
         <v>71</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5532,7 +5492,7 @@
         <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -5543,7 +5503,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5566,13 +5526,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5623,7 +5583,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5649,7 +5609,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5675,10 +5635,10 @@
         <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5729,7 +5689,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5755,7 +5715,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5778,13 +5738,13 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5835,7 +5795,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -5850,7 +5810,7 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>71</v>
@@ -5861,7 +5821,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5887,10 +5847,10 @@
         <v>154</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5917,13 +5877,13 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
@@ -5941,7 +5901,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -5956,7 +5916,7 @@
         <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>71</v>
@@ -5967,7 +5927,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5990,13 +5950,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6047,7 +6007,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6062,7 +6022,7 @@
         <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
@@ -6073,7 +6033,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6099,10 +6059,10 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6153,7 +6113,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6179,7 +6139,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6208,7 +6168,7 @@
         <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>129</v>
@@ -6261,7 +6221,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6287,11 +6247,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6313,10 +6273,10 @@
         <v>126</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>129</v>
@@ -6371,7 +6331,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6397,7 +6357,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6420,13 +6380,13 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6453,13 +6413,13 @@
         <v>71</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>71</v>
@@ -6477,7 +6437,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6492,7 +6452,7 @@
         <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6503,7 +6463,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6526,13 +6486,13 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6583,7 +6543,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -6598,7 +6558,7 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
@@ -6609,7 +6569,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6632,13 +6592,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6689,7 +6649,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6704,7 +6664,7 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
@@ -6715,7 +6675,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6741,10 +6701,10 @@
         <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6771,13 +6731,13 @@
         <v>71</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>71</v>
@@ -6795,7 +6755,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6810,7 +6770,7 @@
         <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,7 +748,7 @@
 RatioRangeCodeableConceptQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">The quantity of substance in the unit of presentation. </t>
+    <t>The quantity of substance in the unit of presentation.</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1178,43 +1178,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="64.1953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="164.64453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="65.0234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.4609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="64.1953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="51.96875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="51.97265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Ingredient-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Ingredient-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,7 +480,7 @@
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/AdministrableProductDefinition-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/AdministrableProductDefinition-uv-epi|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ManufacturedItemDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>Ingredient.manufacturer.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
     <t>Ingredient.substance.code.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/SubstanceDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/SubstanceDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-Ingredient-uv-epi.xlsx
+++ b/StructureDefinition-Ingredient-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
